--- a/Documentation/Design Documents/Design Scratch.xlsx
+++ b/Documentation/Design Documents/Design Scratch.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Main Storage\Git\Project-SpellNote_Public\Documentation\Design Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36719D53-00D1-4A78-9120-73F2A4F5B1A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2212E6B9-C563-4345-B5D4-304A2DB4220E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Intonation" sheetId="1" r:id="rId1"/>
     <sheet name="Terms" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>Use music theory terms to inspire mechanics?</t>
   </si>
@@ -92,6 +92,144 @@
   </si>
   <si>
     <t>You casting too much Sharp could create a deadly combo that decimates an enemy, but it may also leave you just a breath away from being out of tune, and thus taking damage too.</t>
+  </si>
+  <si>
+    <t># and b</t>
+  </si>
+  <si>
+    <t>Offense/Defense</t>
+  </si>
+  <si>
+    <t>#/X</t>
+  </si>
+  <si>
+    <t>X/#</t>
+  </si>
+  <si>
+    <t>b/X</t>
+  </si>
+  <si>
+    <t>X/b</t>
+  </si>
+  <si>
+    <t>#/#</t>
+  </si>
+  <si>
+    <t>b/b</t>
+  </si>
+  <si>
+    <t>##/X</t>
+  </si>
+  <si>
+    <t>X/##</t>
+  </si>
+  <si>
+    <t>bb/X</t>
+  </si>
+  <si>
+    <t>X/bb</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>1 Beat</t>
+  </si>
+  <si>
+    <t>2 Beats</t>
+  </si>
+  <si>
+    <t>3 Beats</t>
+  </si>
+  <si>
+    <t>##/##</t>
+  </si>
+  <si>
+    <t>bb/bb</t>
+  </si>
+  <si>
+    <t>###/X</t>
+  </si>
+  <si>
+    <t>X/###</t>
+  </si>
+  <si>
+    <t>bbb/X</t>
+  </si>
+  <si>
+    <t>X/bbb</t>
+  </si>
+  <si>
+    <t>Two-beat spells should be more powerful than 1 beat spells</t>
+  </si>
+  <si>
+    <t>However they come at the cost of being self-revealing</t>
+  </si>
+  <si>
+    <t>(A) You can tell that nothing happens on the first beat, allowing you to react to the second</t>
+  </si>
+  <si>
+    <t>This may not be entirely true, depending on time required to react?</t>
+  </si>
+  <si>
+    <t>(B) The first beat of a multi-beat spell creates some kind of effect that reveals its nature</t>
+  </si>
+  <si>
+    <t>Perhaps 2 beat spells are purely extensions of 1 beat spells</t>
+  </si>
+  <si>
+    <t>Play #/X twice and it totals to ###/X, instead of ##/X</t>
+  </si>
+  <si>
+    <t>Ex. 2: The first beat reveals if it's an offensive / defensive effect</t>
+  </si>
+  <si>
+    <t>Ex. 1: The first beat reveals if it's a # or b effect</t>
+  </si>
+  <si>
+    <t>Ex. 3: A small portion of the effect triggers after 1 beat, then amplifies after two</t>
+  </si>
+  <si>
+    <t>Repeat a low cost Harmonic spells to gain momentum, but lose flexibility? "Commit to the onslaught!"</t>
+  </si>
+  <si>
+    <t>More flexibility with Accent spells, but no opportunity to gain momentum</t>
+  </si>
+  <si>
+    <t>Harmonic Spells: Low-power spells that amplify into stronger effects</t>
+  </si>
+  <si>
+    <t>Accent Spells: Mid-high power spells that do not amplify</t>
+  </si>
+  <si>
+    <t>Harmonic</t>
+  </si>
+  <si>
+    <t>nn/X</t>
+  </si>
+  <si>
+    <t>X/nn</t>
+  </si>
+  <si>
+    <t>nnnn/X</t>
+  </si>
+  <si>
+    <t>X/nnnn</t>
+  </si>
+  <si>
+    <t>n/X</t>
+  </si>
+  <si>
+    <t>X/n</t>
+  </si>
+  <si>
+    <t>nnn/X</t>
+  </si>
+  <si>
+    <t>X/nnn</t>
   </si>
 </sst>
 </file>
@@ -409,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D13"/>
+  <dimension ref="A2:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,6 +606,209 @@
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Design Documents/Design Scratch.xlsx
+++ b/Documentation/Design Documents/Design Scratch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Main Storage\Git\Project-SpellNote_Public\Documentation\Design Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2212E6B9-C563-4345-B5D4-304A2DB4220E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155B53AF-6ABA-4B91-A152-932F23A91C10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>Use music theory terms to inspire mechanics?</t>
   </si>
@@ -230,6 +230,12 @@
   </si>
   <si>
     <t>X/nnn</t>
+  </si>
+  <si>
+    <t>#/b</t>
+  </si>
+  <si>
+    <t>b/#</t>
   </si>
 </sst>
 </file>
@@ -547,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I56"/>
+  <dimension ref="A2:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,22 +614,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -637,7 +643,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>24</v>
       </c>
@@ -656,8 +662,11 @@
       <c r="I23" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>26</v>
       </c>
@@ -670,8 +679,21 @@
       <c r="F24" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="R24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -685,7 +707,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>32</v>
       </c>
@@ -693,17 +715,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>47</v>
       </c>

--- a/Documentation/Design Documents/Design Scratch.xlsx
+++ b/Documentation/Design Documents/Design Scratch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Main Storage\Git\Project-SpellNote_Public\Documentation\Design Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155B53AF-6ABA-4B91-A152-932F23A91C10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD20E3B-5070-46D8-A8DF-D4615FC4F282}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
   <si>
     <t>Use music theory terms to inspire mechanics?</t>
   </si>
@@ -236,6 +236,18 @@
   </si>
   <si>
     <t>b/#</t>
+  </si>
+  <si>
+    <t>##/x</t>
+  </si>
+  <si>
+    <t>bb/x</t>
+  </si>
+  <si>
+    <t>x/##</t>
+  </si>
+  <si>
+    <t>x/bb</t>
   </si>
 </sst>
 </file>
@@ -553,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:R56"/>
+  <dimension ref="A2:T56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="Q26" sqref="Q26:T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,22 +626,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -643,7 +655,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>24</v>
       </c>
@@ -662,11 +674,8 @@
       <c r="I23" t="s">
         <v>40</v>
       </c>
-      <c r="R23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>26</v>
       </c>
@@ -679,21 +688,22 @@
       <c r="F24" t="s">
         <v>44</v>
       </c>
-      <c r="R24" t="s">
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q26" t="s">
+        <v>70</v>
+      </c>
+      <c r="R26" t="s">
+        <v>71</v>
+      </c>
+      <c r="S26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R26" t="s">
+      <c r="T26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -706,8 +716,20 @@
       <c r="F27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q27" t="s">
+        <v>72</v>
+      </c>
+      <c r="R27" t="s">
+        <v>73</v>
+      </c>
+      <c r="S27" t="s">
+        <v>68</v>
+      </c>
+      <c r="T27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>32</v>
       </c>
@@ -715,17 +737,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>47</v>
       </c>
